--- a/data/trans_orig/P05A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P05A02-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>553903</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>532408</v>
+        <v>532773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>575090</v>
+        <v>574201</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7981176088709345</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.767145065882745</v>
+        <v>0.767671325417195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8286451004816725</v>
+        <v>0.8273651640249011</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>541</v>
@@ -765,19 +765,19 @@
         <v>538008</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>515552</v>
+        <v>516224</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>558832</v>
+        <v>558015</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7826599393182286</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7499913950485113</v>
+        <v>0.7509700494764152</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8129535274008032</v>
+        <v>0.8117646313616308</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1086</v>
@@ -786,19 +786,19 @@
         <v>1091912</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1061792</v>
+        <v>1062162</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1118770</v>
+        <v>1123030</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7904257091974327</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7686215601892761</v>
+        <v>0.7688899087124087</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8098677457396951</v>
+        <v>0.8129512619708709</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>124356</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>104573</v>
+        <v>104543</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>146198</v>
+        <v>145150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1791839297487001</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1506793169282802</v>
+        <v>0.150635815254086</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2106567556844602</v>
+        <v>0.209146767091523</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>130</v>
@@ -836,19 +836,19 @@
         <v>125984</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>106387</v>
+        <v>107763</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>149275</v>
+        <v>145133</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1832734086450618</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1547651040874462</v>
+        <v>0.1567672513411158</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.217155647039917</v>
+        <v>0.2111302269079987</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>253</v>
@@ -857,19 +857,19 @@
         <v>250340</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>224966</v>
+        <v>221849</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>280530</v>
+        <v>278575</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.181218897651233</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1628510851922579</v>
+        <v>0.160594790768644</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2030732482954927</v>
+        <v>0.2016578974083768</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>15753</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9352</v>
+        <v>9283</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25989</v>
+        <v>26123</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02269846138036533</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01347550899487825</v>
+        <v>0.0133762653861433</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03744774151423191</v>
+        <v>0.0376398518502284</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>24</v>
@@ -907,19 +907,19 @@
         <v>23418</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>15286</v>
+        <v>15105</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33252</v>
+        <v>34463</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03406665203670962</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02223672585679038</v>
+        <v>0.02197437544923561</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04837351894150039</v>
+        <v>0.05013507124639284</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>39</v>
@@ -928,19 +928,19 @@
         <v>39171</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>28411</v>
+        <v>28349</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52655</v>
+        <v>52660</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0283553931513343</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.020566745673184</v>
+        <v>0.02052136430609143</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03811670125346663</v>
+        <v>0.03812028986329279</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>774927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>747963</v>
+        <v>751759</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>797452</v>
+        <v>798749</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8087730324713357</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7806317189005672</v>
+        <v>0.7845935043927913</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.832282153250087</v>
+        <v>0.8336363022697153</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>689</v>
@@ -1053,19 +1053,19 @@
         <v>730554</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>702285</v>
+        <v>701419</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>758561</v>
+        <v>756701</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.756006700442849</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.726752680864125</v>
+        <v>0.7258560967238536</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7849887274110782</v>
+        <v>0.7830642577582684</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1407</v>
@@ -1074,19 +1074,19 @@
         <v>1505481</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1467851</v>
+        <v>1470538</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1542263</v>
+        <v>1541903</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7822776950546095</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7627246436254936</v>
+        <v>0.7641206895679582</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8013904968481882</v>
+        <v>0.8012032907276272</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>160393</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>139022</v>
+        <v>137214</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>183905</v>
+        <v>184452</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1673985760832572</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1450938552637307</v>
+        <v>0.143207219509397</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1919378170370983</v>
+        <v>0.1925083655673501</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>172</v>
@@ -1124,19 +1124,19 @@
         <v>187998</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>162855</v>
+        <v>164128</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>215233</v>
+        <v>215577</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1945476375075892</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1685283494304928</v>
+        <v>0.169845881686282</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2227312326591082</v>
+        <v>0.2230878401052038</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>325</v>
@@ -1145,19 +1145,19 @@
         <v>348391</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>313182</v>
+        <v>314161</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>382965</v>
+        <v>380528</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1810308206477792</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.162735515184176</v>
+        <v>0.1632443342247595</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1989961345491155</v>
+        <v>0.1977297535927841</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>22831</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14892</v>
+        <v>13970</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>33865</v>
+        <v>34039</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02382839144540709</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01554253634823794</v>
+        <v>0.01458018363313648</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03534458814397289</v>
+        <v>0.03552534766704936</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1195,19 +1195,19 @@
         <v>47781</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>34550</v>
+        <v>34314</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62540</v>
+        <v>63020</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04944566204956183</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03575361896465872</v>
+        <v>0.03550991897969579</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06471920583681778</v>
+        <v>0.06521566333465828</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -1216,19 +1216,19 @@
         <v>70612</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>56734</v>
+        <v>55760</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>89119</v>
+        <v>88660</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03669148429761129</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02948001583031415</v>
+        <v>0.02897386319827316</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04630781686583275</v>
+        <v>0.04606927809189106</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>519647</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>496836</v>
+        <v>495184</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>540051</v>
+        <v>540505</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7689423930732747</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7351876919889693</v>
+        <v>0.7327432551453694</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7991338255031785</v>
+        <v>0.7998057001696236</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>539</v>
@@ -1341,19 +1341,19 @@
         <v>527007</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>504512</v>
+        <v>506315</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>548481</v>
+        <v>547712</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7717593595362201</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7388165230628982</v>
+        <v>0.7414573643499471</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8032061802447314</v>
+        <v>0.8020793537645565</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1030</v>
@@ -1362,19 +1362,19 @@
         <v>1046655</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1017093</v>
+        <v>1014117</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1078039</v>
+        <v>1077194</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.770358204835063</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7485998818186813</v>
+        <v>0.7464097519821999</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.793457827498014</v>
+        <v>0.7928353294409826</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>137725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>119158</v>
+        <v>118148</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>160563</v>
+        <v>161930</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2037964056469067</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1763220866881315</v>
+        <v>0.1748284026519343</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2375911274623528</v>
+        <v>0.2396140610716009</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>127</v>
@@ -1412,19 +1412,19 @@
         <v>126168</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>107046</v>
+        <v>107999</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>145892</v>
+        <v>146489</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1847632052198581</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1567608443075842</v>
+        <v>0.1581553436112894</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2136463049120744</v>
+        <v>0.2145218780793592</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>257</v>
@@ -1433,19 +1433,19 @@
         <v>263893</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>235634</v>
+        <v>236248</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>291797</v>
+        <v>296540</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1942302892647776</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1734312887143527</v>
+        <v>0.173883344597564</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2147681078828843</v>
+        <v>0.2182588974151022</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>18423</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10782</v>
+        <v>11526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>28322</v>
+        <v>30099</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02726120127981867</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01595416788631071</v>
+        <v>0.01705507945075051</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04190950701591261</v>
+        <v>0.04453905926949796</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>29</v>
@@ -1483,19 +1483,19 @@
         <v>29689</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>20019</v>
+        <v>19951</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>42125</v>
+        <v>42297</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0434774352439218</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02931643093258704</v>
+        <v>0.02921647010452991</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06168807393781117</v>
+        <v>0.06194085632482992</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>46</v>
@@ -1504,19 +1504,19 @@
         <v>48112</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>35675</v>
+        <v>34711</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>65259</v>
+        <v>62468</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03541150590015934</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02625718620724937</v>
+        <v>0.02554829342229643</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0480320096770019</v>
+        <v>0.04597768025318902</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>711227</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>685314</v>
+        <v>683585</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>735592</v>
+        <v>737389</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7569214650241849</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.729343819467235</v>
+        <v>0.7275036117056467</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7828515350663882</v>
+        <v>0.7847647137152207</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>681</v>
@@ -1629,19 +1629,19 @@
         <v>711188</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>680183</v>
+        <v>676411</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>739932</v>
+        <v>738795</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6860207481630571</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6561124651147916</v>
+        <v>0.6524743565452917</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7137471142909406</v>
+        <v>0.7126506311215264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1433</v>
@@ -1650,19 +1650,19 @@
         <v>1422416</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1382750</v>
+        <v>1377810</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1459487</v>
+        <v>1459050</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7197301749443034</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6996597274735016</v>
+        <v>0.6971599819853821</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7384878985553571</v>
+        <v>0.7382667239888573</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>190732</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>166770</v>
+        <v>166627</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>214609</v>
+        <v>217374</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2029865712810522</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1774841035278821</v>
+        <v>0.1773321005922214</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2283966705370938</v>
+        <v>0.23133951465335</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>229</v>
@@ -1700,19 +1700,19 @@
         <v>236831</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>211003</v>
+        <v>208954</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>264553</v>
+        <v>265341</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2284501463100693</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2035363510532197</v>
+        <v>0.2015598519478173</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2551910139680599</v>
+        <v>0.2559515531175087</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>428</v>
@@ -1721,19 +1721,19 @@
         <v>427564</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>394231</v>
+        <v>394055</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>464874</v>
+        <v>464169</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2163436041475876</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1994772951831834</v>
+        <v>0.199388240081975</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2352223639030803</v>
+        <v>0.2348654117788684</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>37672</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26984</v>
+        <v>26695</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>50541</v>
+        <v>50700</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04009196369476285</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02871770539508349</v>
+        <v>0.028410538628117</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05378785523445246</v>
+        <v>0.05395704127511749</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>85</v>
@@ -1771,19 +1771,19 @@
         <v>88667</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>72867</v>
+        <v>72805</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>108021</v>
+        <v>108913</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08552910552687354</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.07028808770320313</v>
+        <v>0.07022865107917545</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1041979801907538</v>
+        <v>0.1050584105716521</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>125</v>
@@ -1792,19 +1792,19 @@
         <v>126339</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>105353</v>
+        <v>105010</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>149661</v>
+        <v>150596</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.06392622090810901</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05330751204354855</v>
+        <v>0.05313431648957996</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.07572703597514467</v>
+        <v>0.07620046343488832</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>2559705</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2514070</v>
+        <v>2506863</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2609271</v>
+        <v>2602396</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7833617302240591</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7693957516655158</v>
+        <v>0.7671901261098136</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7985306091123019</v>
+        <v>0.7964267315211343</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2450</v>
@@ -1917,19 +1917,19 @@
         <v>2506759</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2456061</v>
+        <v>2453742</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2558367</v>
+        <v>2554029</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7431187572802292</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.728089607525506</v>
+        <v>0.7274021521177554</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7584178043940208</v>
+        <v>0.7571317248664147</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4956</v>
@@ -1938,19 +1938,19 @@
         <v>5066464</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4994383</v>
+        <v>4994655</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5130847</v>
+        <v>5131844</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7629199643874169</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7520658546697512</v>
+        <v>0.7521068621547162</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7726149137814518</v>
+        <v>0.7727651195853745</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>613206</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>569060</v>
+        <v>571914</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>659050</v>
+        <v>661885</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1876631325944222</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1741527203834549</v>
+        <v>0.1750261023349082</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2016930547678192</v>
+        <v>0.2025607336670403</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>658</v>
@@ -1988,19 +1988,19 @@
         <v>676981</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>633402</v>
+        <v>631662</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>723322</v>
+        <v>725584</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2006884591962383</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1877694485393179</v>
+        <v>0.1872537765299003</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2144259624322924</v>
+        <v>0.2150966628819498</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1263</v>
@@ -2009,19 +2009,19 @@
         <v>1290188</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1227478</v>
+        <v>1226796</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1359169</v>
+        <v>1351761</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1942794597905206</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1848365022971047</v>
+        <v>0.1847337874660337</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2046668626512346</v>
+        <v>0.2035512739860844</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>94679</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>75925</v>
+        <v>76956</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>114306</v>
+        <v>114938</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02897513718151878</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02323591932432007</v>
+        <v>0.02355139602949683</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03498180310105858</v>
+        <v>0.03517507562446649</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>183</v>
@@ -2059,19 +2059,19 @@
         <v>189555</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>163077</v>
+        <v>163245</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>217805</v>
+        <v>216229</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05619278352353238</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04834361589246289</v>
+        <v>0.04839332266205238</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.06456741860613023</v>
+        <v>0.06410023869539408</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>277</v>
@@ -2080,19 +2080,19 @@
         <v>284234</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>252597</v>
+        <v>252500</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>319771</v>
+        <v>319638</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04280057582206256</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03803663861908504</v>
+        <v>0.03802207802195961</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04815187458432982</v>
+        <v>0.04813181829907569</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>646580</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>630219</v>
+        <v>630507</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>660742</v>
+        <v>659330</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9221064163262136</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.898773978292398</v>
+        <v>0.8991834840814116</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9423030261622373</v>
+        <v>0.940289099969565</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>572</v>
@@ -2445,19 +2445,19 @@
         <v>610602</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>590812</v>
+        <v>591054</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>628146</v>
+        <v>628317</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8781462066089364</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8496848335989587</v>
+        <v>0.8500331498228161</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9033763342260975</v>
+        <v>0.9036226185431265</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1191</v>
@@ -2466,19 +2466,19 @@
         <v>1257182</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1232478</v>
+        <v>1232583</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1279312</v>
+        <v>1279134</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9002186700994157</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8825287374904243</v>
+        <v>0.8826043607871016</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9160651200741821</v>
+        <v>0.9159374987987464</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>51502</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>37499</v>
+        <v>39482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67086</v>
+        <v>67028</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07344868673374234</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05347893791667775</v>
+        <v>0.05630712128712303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09567259080342794</v>
+        <v>0.09559022849736658</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -2516,19 +2516,19 @@
         <v>74839</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57800</v>
+        <v>58411</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92099</v>
+        <v>93642</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1076307739011616</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08312526542191136</v>
+        <v>0.08400418504884888</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1324531242719396</v>
+        <v>0.1346719806317509</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>118</v>
@@ -2537,19 +2537,19 @@
         <v>126341</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>105208</v>
+        <v>104206</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>149942</v>
+        <v>149707</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09046791512765769</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.07533521728338788</v>
+        <v>0.07461794125759461</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1073673753451805</v>
+        <v>0.1071994354584548</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>3117</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8446</v>
+        <v>8827</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004444896940044013</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001450638152362345</v>
+        <v>0.001449242024218813</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01204520645729132</v>
+        <v>0.01258795788335153</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>9</v>
@@ -2587,19 +2587,19 @@
         <v>9890</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>4869</v>
+        <v>4248</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>18602</v>
+        <v>17482</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01422301948990206</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007002626853061644</v>
+        <v>0.006109823724068211</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02675211577405966</v>
+        <v>0.02514130075325849</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>12</v>
@@ -2608,19 +2608,19 @@
         <v>13006</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6933</v>
+        <v>6947</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21887</v>
+        <v>22442</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.009313414772926607</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004964456948984811</v>
+        <v>0.00497450271259631</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01567255620534562</v>
+        <v>0.01607004893876592</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>868664</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>841971</v>
+        <v>841529</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>888163</v>
+        <v>889915</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8586109216005365</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.832226597587631</v>
+        <v>0.8317899870079025</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8778839033167402</v>
+        <v>0.8796158251464806</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>796</v>
@@ -2733,19 +2733,19 @@
         <v>869964</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>842135</v>
+        <v>842825</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>891958</v>
+        <v>894960</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8462744726045809</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8192030303292166</v>
+        <v>0.8198742570925148</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8676690906430201</v>
+        <v>0.8705891608685428</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1597</v>
@@ -2754,19 +2754,19 @@
         <v>1738629</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1702304</v>
+        <v>1705894</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1772168</v>
+        <v>1772611</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8523934536710319</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8345847186118625</v>
+        <v>0.8363446141444907</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8688367555427905</v>
+        <v>0.8690537115202346</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>126905</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>108122</v>
+        <v>107367</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>150209</v>
+        <v>152898</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1254359886529247</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1068710623728797</v>
+        <v>0.1061241169004031</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1484707202130307</v>
+        <v>0.1511285758402658</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>112</v>
@@ -2804,19 +2804,19 @@
         <v>124848</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>103830</v>
+        <v>104345</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>149639</v>
+        <v>148294</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1214478277088914</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1010027747017674</v>
+        <v>0.1015039585610636</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1455646393200508</v>
+        <v>0.1442559443531453</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>228</v>
@@ -2825,19 +2825,19 @@
         <v>251752</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>221422</v>
+        <v>221438</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>284078</v>
+        <v>283860</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1234259886297933</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1085561779089223</v>
+        <v>0.1085638110152173</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1392742124874825</v>
+        <v>0.1391675145389409</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>16140</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8897</v>
+        <v>9110</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>26912</v>
+        <v>26758</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01595308974653876</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.008794243709452434</v>
+        <v>0.009004273053080917</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02660093795694561</v>
+        <v>0.02644808073007484</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>28</v>
@@ -2875,19 +2875,19 @@
         <v>33181</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>22403</v>
+        <v>21961</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46848</v>
+        <v>48710</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03227769968652772</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02179255462336483</v>
+        <v>0.0213627432019941</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04557269749512829</v>
+        <v>0.04738342885682241</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -2896,19 +2896,19 @@
         <v>49321</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>35437</v>
+        <v>35351</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>64572</v>
+        <v>65327</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02418055769917474</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01737353370754955</v>
+        <v>0.01733155899196067</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03165750528099778</v>
+        <v>0.032027709656206</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>651070</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>629600</v>
+        <v>627964</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>671102</v>
+        <v>671279</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8593591881244362</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8310203090916993</v>
+        <v>0.8288603446064033</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8857989486872786</v>
+        <v>0.8860325166635867</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>597</v>
@@ -3021,19 +3021,19 @@
         <v>657221</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>636518</v>
+        <v>635559</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>676408</v>
+        <v>675972</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8489697352150212</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8222255940162559</v>
+        <v>0.820986691807618</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8737539773182033</v>
+        <v>0.8731908007569233</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1190</v>
@@ -3042,19 +3042,19 @@
         <v>1308293</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1278921</v>
+        <v>1281678</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1336034</v>
+        <v>1336942</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8541084471949908</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8349334374884038</v>
+        <v>0.8367335434113418</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8722191397961315</v>
+        <v>0.8728121217275554</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>92404</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>74751</v>
+        <v>74735</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>112260</v>
+        <v>114896</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1219656160670844</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09866526622184461</v>
+        <v>0.09864432637330543</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.148173656619498</v>
+        <v>0.1516532399337793</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>87</v>
@@ -3092,19 +3092,19 @@
         <v>93841</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>77617</v>
+        <v>76978</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114781</v>
+        <v>114096</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1212191037123099</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.100262292744018</v>
+        <v>0.0994367263797693</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1482689709646167</v>
+        <v>0.1473837390975716</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>170</v>
@@ -3113,19 +3113,19 @@
         <v>186245</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>162225</v>
+        <v>161957</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>214275</v>
+        <v>214439</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1215883350870629</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1059072342627243</v>
+        <v>0.1057323332595367</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.139887501146481</v>
+        <v>0.1399944798666524</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>14149</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7924</v>
+        <v>7606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>24832</v>
+        <v>23296</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01867519580847933</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01045875008690134</v>
+        <v>0.0100398718256758</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03277615020224194</v>
+        <v>0.03074854728329677</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -3163,19 +3163,19 @@
         <v>23078</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>14491</v>
+        <v>13847</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>35232</v>
+        <v>35146</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02981116107266894</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01871915103682989</v>
+        <v>0.01788637778654744</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04551053231335622</v>
+        <v>0.04540016049334718</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -3184,19 +3184,19 @@
         <v>37227</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25890</v>
+        <v>25585</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>53122</v>
+        <v>52398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02430321771794629</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0169021783764629</v>
+        <v>0.01670309903867768</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.0346802073291908</v>
+        <v>0.03420731057652029</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>729342</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>703010</v>
+        <v>699327</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>753726</v>
+        <v>753218</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7711087476679391</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7432693696302971</v>
+        <v>0.7393757572678086</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7968893782230285</v>
+        <v>0.7963523865222033</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>777</v>
@@ -3309,19 +3309,19 @@
         <v>816592</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>789728</v>
+        <v>786598</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>843559</v>
+        <v>840053</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.7784273004498967</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7528188220554061</v>
+        <v>0.7498355046512233</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8041338103896329</v>
+        <v>0.8007921738989489</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1484</v>
@@ -3330,19 +3330,19 @@
         <v>1545934</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1504242</v>
+        <v>1507772</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1582182</v>
+        <v>1584115</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7749573161186072</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7540576072996019</v>
+        <v>0.7558274364360799</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.793128058726895</v>
+        <v>0.7940970061233523</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>163696</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>141309</v>
+        <v>141027</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>188303</v>
+        <v>190588</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1730706711825252</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1494015284839021</v>
+        <v>0.1491030358259706</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1990869669975723</v>
+        <v>0.2015021863596178</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>168</v>
@@ -3380,19 +3380,19 @@
         <v>175831</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>151243</v>
+        <v>152879</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>201935</v>
+        <v>203840</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1676135869722479</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1441743830679403</v>
+        <v>0.1457337098208</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1924968887819666</v>
+        <v>0.1943129460220732</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>318</v>
@@ -3401,19 +3401,19 @@
         <v>339528</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>308496</v>
+        <v>305511</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>377558</v>
+        <v>373949</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1702009833152616</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1546451532857657</v>
+        <v>0.1531486787506912</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.189264928828335</v>
+        <v>0.1874561406129294</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>52797</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40151</v>
+        <v>40479</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>67883</v>
+        <v>69073</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05582058114953565</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.04245042581990175</v>
+        <v>0.04279674607678569</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0717707820651942</v>
+        <v>0.07302865203709577</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>55</v>
@@ -3451,19 +3451,19 @@
         <v>56605</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>42824</v>
+        <v>42485</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>72445</v>
+        <v>72685</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05395911257785531</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.04082266905788357</v>
+        <v>0.04049898496691697</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06905926196081917</v>
+        <v>0.06928755778495203</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>107</v>
@@ -3472,19 +3472,19 @@
         <v>109402</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>90980</v>
+        <v>89774</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>131618</v>
+        <v>129821</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.05484170056613118</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.04560704503955317</v>
+        <v>0.04500277763762581</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06597856199052635</v>
+        <v>0.0650778158765991</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>2895656</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2850932</v>
+        <v>2851361</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2941536</v>
+        <v>2939689</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8475837860963638</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8344924915201823</v>
+        <v>0.8346181574747337</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8610132772445683</v>
+        <v>0.8604724261313117</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2742</v>
@@ -3597,19 +3597,19 @@
         <v>2954380</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2910557</v>
+        <v>2908850</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3002009</v>
+        <v>3004731</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8330428987235879</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.820686123400823</v>
+        <v>0.8202049715021769</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.846472927247308</v>
+        <v>0.8472401881548027</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5462</v>
@@ -3618,19 +3618,19 @@
         <v>5850037</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5786361</v>
+        <v>5778318</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>5914784</v>
+        <v>5913915</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8401774684983809</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8310322928951402</v>
+        <v>0.8298771642434264</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8494762942992612</v>
+        <v>0.8493515660653652</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>434507</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>393330</v>
+        <v>393997</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>479818</v>
+        <v>475863</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.12718400629245</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1151309946165531</v>
+        <v>0.1153264055220384</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.140446934008486</v>
+        <v>0.139289206954993</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>435</v>
@@ -3668,19 +3668,19 @@
         <v>469358</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>425509</v>
+        <v>427089</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>507690</v>
+        <v>509840</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1323444223694544</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1199802401007625</v>
+        <v>0.1204257829549031</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1431526213245697</v>
+        <v>0.1437589139867293</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>834</v>
@@ -3689,19 +3689,19 @@
         <v>903866</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>842928</v>
+        <v>845782</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>964611</v>
+        <v>968128</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1298124346286455</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1210606046971581</v>
+        <v>0.121470563894439</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1385365698134029</v>
+        <v>0.139041782105748</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>86202</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>66908</v>
+        <v>67636</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>105465</v>
+        <v>107193</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02523220761118627</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01958447750757591</v>
+        <v>0.01979755904966025</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03087051172469601</v>
+        <v>0.03137628476722086</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>111</v>
@@ -3739,19 +3739,19 @@
         <v>122754</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>103281</v>
+        <v>100847</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>147304</v>
+        <v>147977</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03461267890695765</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02912197497660418</v>
+        <v>0.02843564037092207</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04153501622064897</v>
+        <v>0.04172491752602662</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>193</v>
@@ -3760,19 +3760,19 @@
         <v>208956</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>182644</v>
+        <v>182203</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>239990</v>
+        <v>241188</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0300100968729736</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02623118596493522</v>
+        <v>0.02616787114398929</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03446716628942179</v>
+        <v>0.03463920175690283</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>624561</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>608823</v>
+        <v>608642</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>638014</v>
+        <v>637818</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9255493099852727</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9022272888914215</v>
+        <v>0.901959231350239</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9454857354933269</v>
+        <v>0.9451963448086661</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>616</v>
@@ -4125,19 +4125,19 @@
         <v>622821</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>609650</v>
+        <v>609416</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>635091</v>
+        <v>635800</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9285638455380698</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9089261741065526</v>
+        <v>0.9085780420155951</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9468571315239888</v>
+        <v>0.9479135156685482</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1222</v>
@@ -4146,19 +4146,19 @@
         <v>1247382</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1226583</v>
+        <v>1226630</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1266627</v>
+        <v>1264427</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9270520250786954</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9115946375491536</v>
+        <v>0.9116292179768403</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9413547794777147</v>
+        <v>0.9397201475429323</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>35478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>24630</v>
+        <v>24975</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>48839</v>
+        <v>49150</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05257587150935088</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03650018713519496</v>
+        <v>0.03701130914794946</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07237558263210589</v>
+        <v>0.07283691165708488</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -4196,19 +4196,19 @@
         <v>35732</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>25718</v>
+        <v>25158</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>47865</v>
+        <v>47476</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05327292589727173</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03834354445558166</v>
+        <v>0.0375080185720464</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07136121396236887</v>
+        <v>0.07078131919402593</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>70</v>
@@ -4217,19 +4217,19 @@
         <v>71210</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>55613</v>
+        <v>56537</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>90346</v>
+        <v>87381</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05292334598139459</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04133139689713026</v>
+        <v>0.04201808929031774</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06714519488947954</v>
+        <v>0.06494134448903811</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>14761</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8428</v>
+        <v>8129</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25581</v>
+        <v>25603</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02187481850537637</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0124894248894285</v>
+        <v>0.01204621069804085</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03790839009288623</v>
+        <v>0.0379408751895878</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -4267,19 +4267,19 @@
         <v>12183</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6561</v>
+        <v>6436</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21320</v>
+        <v>21691</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01816322856465846</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009781353140734035</v>
+        <v>0.009594782537012908</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03178606466150032</v>
+        <v>0.03233916907456391</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>24</v>
@@ -4288,19 +4288,19 @@
         <v>26944</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17899</v>
+        <v>17618</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40593</v>
+        <v>38671</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02002462893991002</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01330223375535392</v>
+        <v>0.01309399436789329</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03016833930011607</v>
+        <v>0.02874002369764048</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>911835</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>891313</v>
+        <v>889277</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>930355</v>
+        <v>931210</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8943228267427721</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8741956083885931</v>
+        <v>0.8721985798124796</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9124876964103221</v>
+        <v>0.9133261595321193</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>868</v>
@@ -4413,19 +4413,19 @@
         <v>928442</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>905175</v>
+        <v>905569</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>946592</v>
+        <v>946746</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8936104671594823</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.871216417219875</v>
+        <v>0.8715960992232071</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.911080032669263</v>
+        <v>0.9112278007760278</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1718</v>
@@ -4434,19 +4434,19 @@
         <v>1840276</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1811096</v>
+        <v>1814092</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1866862</v>
+        <v>1868768</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.893963290852644</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8797884163315535</v>
+        <v>0.8812434945752837</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9068781909575591</v>
+        <v>0.9078037592605906</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>92536</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>74349</v>
+        <v>74517</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>110961</v>
+        <v>114895</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09075930993607195</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07292135472331125</v>
+        <v>0.07308624477168441</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1088299806169557</v>
+        <v>0.112688514179399</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>88</v>
@@ -4484,19 +4484,19 @@
         <v>91547</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>74771</v>
+        <v>74347</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>113093</v>
+        <v>111574</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.08811245508288944</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.07196575805673744</v>
+        <v>0.07155822540733429</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1088506703075367</v>
+        <v>0.1073882897374404</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>173</v>
@@ -4505,19 +4505,19 @@
         <v>184083</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>161239</v>
+        <v>159370</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>211332</v>
+        <v>210789</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08942341253537417</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07832636636575917</v>
+        <v>0.07741843873095081</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1026599235022674</v>
+        <v>0.1023962898284597</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>15210</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8385</v>
+        <v>8628</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24208</v>
+        <v>24902</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01491786332115596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00822370896077026</v>
+        <v>0.008462682053248906</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02374281915060885</v>
+        <v>0.02442374397465697</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -4555,19 +4555,19 @@
         <v>18989</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11985</v>
+        <v>11804</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29944</v>
+        <v>29088</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01827707775762817</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01153535951783387</v>
+        <v>0.01136128023484006</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02882104963561102</v>
+        <v>0.02799651457600976</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -4576,19 +4576,19 @@
         <v>34199</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>23339</v>
+        <v>22995</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>46979</v>
+        <v>48302</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01661329661198184</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01133746074569368</v>
+        <v>0.01117061865798594</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02282125377847275</v>
+        <v>0.0234641699981782</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>629777</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>605991</v>
+        <v>607081</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>649921</v>
+        <v>649463</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8337558757005272</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8022663588395327</v>
+        <v>0.8037086295042382</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8604246720848574</v>
+        <v>0.8598187077128301</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>598</v>
@@ -4701,19 +4701,19 @@
         <v>634631</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>611610</v>
+        <v>610672</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>656673</v>
+        <v>656348</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8117875526788449</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7823397398471944</v>
+        <v>0.7811403947529985</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8399828177691757</v>
+        <v>0.8395669822546745</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1175</v>
@@ -4722,19 +4722,19 @@
         <v>1264409</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1231400</v>
+        <v>1231968</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1293389</v>
+        <v>1295018</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8225829098906078</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8011088080882053</v>
+        <v>0.8014783437935692</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8414363104446645</v>
+        <v>0.842496304653276</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>100153</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81567</v>
+        <v>83182</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>122845</v>
+        <v>119488</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1325913456416508</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1079853656728377</v>
+        <v>0.1101237109632582</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1626340670131888</v>
+        <v>0.1581895378841545</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>103</v>
@@ -4772,19 +4772,19 @@
         <v>112857</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>93782</v>
+        <v>93174</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>135263</v>
+        <v>133105</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1443605276509869</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1199612651231172</v>
+        <v>0.1191839255161421</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1730210057708679</v>
+        <v>0.1702612438733853</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -4793,19 +4793,19 @@
         <v>213010</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>186930</v>
+        <v>186414</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>241386</v>
+        <v>243134</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1385770855668717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1216108533178722</v>
+        <v>0.1212745994554359</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1570376991639964</v>
+        <v>0.1581753049006448</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>25420</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>16646</v>
+        <v>16506</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38123</v>
+        <v>36942</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03365277865782193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02203766301124891</v>
+        <v>0.021852114513771</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.05047066102680647</v>
+        <v>0.04890753601312871</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>32</v>
@@ -4843,19 +4843,19 @@
         <v>34282</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>23781</v>
+        <v>23627</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>46802</v>
+        <v>47975</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0438519196701681</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03041939558296764</v>
+        <v>0.03022203553819702</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05986703261318583</v>
+        <v>0.06136734081276372</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -4864,19 +4864,19 @@
         <v>59702</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>44573</v>
+        <v>46606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>76096</v>
+        <v>77706</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03884000454252057</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0289976318346614</v>
+        <v>0.03032003516263956</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04950584215681681</v>
+        <v>0.05055268877774588</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>802606</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>781440</v>
+        <v>780615</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>822204</v>
+        <v>823378</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8580332872629779</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8354051020527921</v>
+        <v>0.8345236085073665</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.878984627001837</v>
+        <v>0.8802392732400607</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>789</v>
@@ -4989,19 +4989,19 @@
         <v>858939</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>831878</v>
+        <v>833177</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>883402</v>
+        <v>881646</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.82820632570583</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8021133069025256</v>
+        <v>0.803366006828376</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8517932523426568</v>
+        <v>0.8501005552243619</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1585</v>
@@ -5010,19 +5010,19 @@
         <v>1661545</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1624168</v>
+        <v>1629106</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1690998</v>
+        <v>1691334</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8423508365163391</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8234015390951893</v>
+        <v>0.8259049706291681</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8572821587596088</v>
+        <v>0.8574525553658098</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>108812</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89764</v>
+        <v>89729</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>127317</v>
+        <v>129053</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1163268983725909</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09596311456560501</v>
+        <v>0.09592597160681396</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1361094959245941</v>
+        <v>0.137965708546018</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>127</v>
@@ -5060,19 +5060,19 @@
         <v>137071</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116026</v>
+        <v>115271</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160918</v>
+        <v>159902</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1321663622616717</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1118741664445311</v>
+        <v>0.1111467446096708</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1551605135531908</v>
+        <v>0.1541809382564176</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>237</v>
@@ -5081,19 +5081,19 @@
         <v>245883</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>218261</v>
+        <v>219524</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>279753</v>
+        <v>276412</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1246549881050211</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1106512573325137</v>
+        <v>0.1112918681391382</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1418258908476461</v>
+        <v>0.1401319636530548</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>23984</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>16117</v>
+        <v>15409</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35517</v>
+        <v>34979</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.02563981436443111</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.01723010489943301</v>
+        <v>0.01647329990172535</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03797023222562775</v>
+        <v>0.03739484340170108</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>37</v>
@@ -5131,19 +5131,19 @@
         <v>41098</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>28983</v>
+        <v>29043</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>56219</v>
+        <v>56594</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03962731203249831</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.0279457817543582</v>
+        <v>0.02800345864119772</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05420745113136431</v>
+        <v>0.0545691060248607</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>61</v>
@@ -5152,19 +5152,19 @@
         <v>65081</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>51258</v>
+        <v>51013</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>83833</v>
+        <v>83898</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03299417537863979</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0259860099575899</v>
+        <v>0.025861736683485</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04250056783118406</v>
+        <v>0.04253343407185237</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>2968778</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2926045</v>
+        <v>2928393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3005836</v>
+        <v>3004280</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8770050782198549</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8643812562506861</v>
+        <v>0.8650749800734113</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8879522477270483</v>
+        <v>0.8874926255141622</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>2871</v>
@@ -5277,19 +5277,19 @@
         <v>3044833</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3001858</v>
+        <v>3001563</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3084969</v>
+        <v>3088321</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8629031992832582</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8507241163966045</v>
+        <v>0.8506403904251199</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8742775382887149</v>
+        <v>0.8752276172474063</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5700</v>
@@ -5298,19 +5298,19 @@
         <v>6013611</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5956722</v>
+        <v>5952036</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6070155</v>
+        <v>6068745</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8698078310546867</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8615793738141158</v>
+        <v>0.8609015825968169</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8779862907963888</v>
+        <v>0.8777823248441108</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>336980</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>301194</v>
+        <v>303187</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>374320</v>
+        <v>373854</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09954702517059875</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08897552744452537</v>
+        <v>0.08956443551528556</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1105777259774641</v>
+        <v>0.1104399697268189</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>355</v>
@@ -5348,19 +5348,19 @@
         <v>377207</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>339892</v>
+        <v>341324</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>417835</v>
+        <v>419338</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1069000128636741</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09632519692528248</v>
+        <v>0.09673080019135445</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1184139997448834</v>
+        <v>0.1188399255974429</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>675</v>
@@ -5369,19 +5369,19 @@
         <v>714186</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>663519</v>
+        <v>667817</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>763621</v>
+        <v>770172</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1032998066309589</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09597128608435228</v>
+        <v>0.09659297349154881</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1104500644013743</v>
+        <v>0.1113976153682137</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>79374</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62189</v>
+        <v>64782</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>98780</v>
+        <v>101030</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02344789660954635</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01837132718602254</v>
+        <v>0.01913721648631366</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02918052479305792</v>
+        <v>0.02984528977535899</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>98</v>
@@ -5419,19 +5419,19 @@
         <v>106552</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>89066</v>
+        <v>86489</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>130545</v>
+        <v>128989</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0301967878530677</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02524118313505761</v>
+        <v>0.02451084636447728</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.03699632337581268</v>
+        <v>0.03655531043787495</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>172</v>
@@ -5440,19 +5440,19 @@
         <v>185926</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>161803</v>
+        <v>159562</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>219512</v>
+        <v>214366</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02689236231435443</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02340319842140304</v>
+        <v>0.02307901916035697</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03175014564969848</v>
+        <v>0.03100587237048291</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>657708</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>644995</v>
+        <v>645611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>667136</v>
+        <v>667570</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9553634223926225</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9368958928969285</v>
+        <v>0.937790539946857</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.969057425314903</v>
+        <v>0.9696876746365538</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1185</v>
@@ -5805,19 +5805,19 @@
         <v>697028</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>683609</v>
+        <v>684202</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>706490</v>
+        <v>706201</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.949396800993393</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9311187199859139</v>
+        <v>0.9319272803416636</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9622841744667361</v>
+        <v>0.9618904597097285</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1882</v>
@@ -5826,19 +5826,19 @@
         <v>1354737</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1338153</v>
+        <v>1337715</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1369091</v>
+        <v>1368995</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9522841884337966</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9406270600291465</v>
+        <v>0.9403193441918629</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9623746104350582</v>
+        <v>0.9623067561276777</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>27296</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18456</v>
+        <v>18353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39849</v>
+        <v>39948</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03964983851673089</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02680811558847918</v>
+        <v>0.0266586965679466</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0578835937834163</v>
+        <v>0.05802688459217776</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -5876,19 +5876,19 @@
         <v>30013</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>21576</v>
+        <v>22040</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>43166</v>
+        <v>42254</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04088002167896531</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02938727787483397</v>
+        <v>0.03001961569890471</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05879472301706552</v>
+        <v>0.05755252236419631</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>72</v>
@@ -5897,19 +5897,19 @@
         <v>57310</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43244</v>
+        <v>44820</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>73358</v>
+        <v>75092</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0402847073168893</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03039737249052919</v>
+        <v>0.03150495157977159</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05156540628221647</v>
+        <v>0.05278462202063347</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>3433</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>916</v>
+        <v>941</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8430</v>
+        <v>8711</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004986739090646728</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001330271840762976</v>
+        <v>0.001367572194607437</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01224550764770929</v>
+        <v>0.0126536559667001</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -5947,19 +5947,19 @@
         <v>7139</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3722</v>
+        <v>3858</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12676</v>
+        <v>12697</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.009723177327641762</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005069710351047815</v>
+        <v>0.005255294536000317</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01726512460066278</v>
+        <v>0.01729464358802908</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -5968,19 +5968,19 @@
         <v>10572</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6010</v>
+        <v>5830</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>16706</v>
+        <v>17167</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007431104249314376</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.004224475833306048</v>
+        <v>0.004098175482723852</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01174287885274636</v>
+        <v>0.01206688280336153</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>958894</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>935799</v>
+        <v>936468</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>976287</v>
+        <v>978259</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9141752272722431</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8921577815322047</v>
+        <v>0.8927948740140363</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9307572412261538</v>
+        <v>0.9326367250161017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1395</v>
@@ -6093,19 +6093,19 @@
         <v>986546</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>970219</v>
+        <v>971485</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>999647</v>
+        <v>1000111</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9222938965410876</v>
+        <v>0.9222938965410874</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9070295545544262</v>
+        <v>0.9082137284880544</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9345408414774709</v>
+        <v>0.9349751405637887</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2280</v>
@@ -6114,19 +6114,19 @@
         <v>1945440</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1919883</v>
+        <v>1917977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1969546</v>
+        <v>1968358</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9182743183449962</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9062108876120032</v>
+        <v>0.9053113888157215</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9296524016227121</v>
+        <v>0.9290917305814912</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>59023</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>44800</v>
+        <v>44226</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>76435</v>
+        <v>76421</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05627015492307951</v>
+        <v>0.0562701549230795</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.04271057670764673</v>
+        <v>0.04216382455188974</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.07287010506082614</v>
+        <v>0.07285748717265585</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>87</v>
@@ -6164,19 +6164,19 @@
         <v>59929</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48285</v>
+        <v>48444</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>73190</v>
+        <v>72436</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.05602625081580694</v>
+        <v>0.05602625081580695</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04513996582030645</v>
+        <v>0.04528892049317688</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06842347592141221</v>
+        <v>0.06771806834741281</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>142</v>
@@ -6185,19 +6185,19 @@
         <v>118952</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>98909</v>
+        <v>98910</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>141721</v>
+        <v>143117</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.05614700849161131</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.0466861913711104</v>
+        <v>0.04668698000227132</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06689417585251954</v>
+        <v>0.06755325089557231</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>31000</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>20272</v>
+        <v>20136</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47283</v>
+        <v>47543</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02955461780467744</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01932630046551896</v>
+        <v>0.01919673153162473</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04507757563177679</v>
+        <v>0.04532569277667537</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -6235,19 +6235,19 @@
         <v>23190</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>16289</v>
+        <v>15900</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>32776</v>
+        <v>33366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02167985264310549</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01522770216917129</v>
+        <v>0.01486438769749884</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03064118930014536</v>
+        <v>0.03119251939001725</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>56</v>
@@ -6256,19 +6256,19 @@
         <v>54191</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>39137</v>
+        <v>41124</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>71675</v>
+        <v>69730</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0255786731633925</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01847322304095946</v>
+        <v>0.01941099623085502</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03383145600794066</v>
+        <v>0.03291364558325231</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>723145</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>703470</v>
+        <v>702994</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>740683</v>
+        <v>740401</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9017956430200039</v>
+        <v>0.9017956430200037</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8772588759346072</v>
+        <v>0.8766663370363939</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9236658090029869</v>
+        <v>0.9233136967865795</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>942</v>
@@ -6381,19 +6381,19 @@
         <v>723289</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>701941</v>
+        <v>701427</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>739614</v>
+        <v>738290</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.8904656093933909</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8641834371962527</v>
+        <v>0.8635510521311299</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9105641318576229</v>
+        <v>0.9089338597709776</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1547</v>
@@ -6402,19 +6402,19 @@
         <v>1446434</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1417934</v>
+        <v>1417966</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1470106</v>
+        <v>1471372</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.8960942542125125</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8784381432917592</v>
+        <v>0.8784577418415953</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.910759740178092</v>
+        <v>0.9115439743514601</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>70183</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>53014</v>
+        <v>53789</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88851</v>
+        <v>89220</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08752175054967763</v>
+        <v>0.08752175054967762</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06611052091203939</v>
+        <v>0.06707759102241033</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1108019020925476</v>
+        <v>0.1112614693609555</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>85</v>
@@ -6452,19 +6452,19 @@
         <v>73746</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58929</v>
+        <v>59107</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>94326</v>
+        <v>94517</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09079124041041707</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07254903535712579</v>
+        <v>0.07276874302384406</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1161285767486877</v>
+        <v>0.1163631065340608</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>146</v>
@@ -6473,19 +6473,19 @@
         <v>143929</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>121590</v>
+        <v>120101</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>169584</v>
+        <v>169751</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.08916699128880842</v>
+        <v>0.08916699128880846</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07532749965960439</v>
+        <v>0.07440468447568435</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1050608687302063</v>
+        <v>0.1051638470314957</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>8566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3937</v>
+        <v>3958</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15011</v>
+        <v>15823</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01068260643031868</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004910174435983924</v>
+        <v>0.004935525031744508</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0187197609189082</v>
+        <v>0.01973211335840288</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -6523,19 +6523,19 @@
         <v>15224</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9569</v>
+        <v>9573</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>23694</v>
+        <v>23524</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01874315019619208</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01178019118096058</v>
+        <v>0.011785350156237</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02917013228520183</v>
+        <v>0.02896160159315643</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -6544,19 +6544,19 @@
         <v>23791</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16051</v>
+        <v>16606</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34152</v>
+        <v>35119</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01473875449867899</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009944169675112843</v>
+        <v>0.01028750854044041</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02115780760933102</v>
+        <v>0.02175711304612639</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>869690</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>842266</v>
+        <v>846327</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>890325</v>
+        <v>892420</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8794127230188256</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8516826081371852</v>
+        <v>0.8557889980183709</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9002780532959864</v>
+        <v>0.9023967151203929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1307</v>
@@ -6669,19 +6669,19 @@
         <v>935740</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>913007</v>
+        <v>912638</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>956801</v>
+        <v>956712</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.8376034138766297</v>
+        <v>0.83760341387663</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8172541621128827</v>
+        <v>0.8169235490202584</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8564556593151171</v>
+        <v>0.8563755010353395</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2197</v>
@@ -6690,19 +6690,19 @@
         <v>1805431</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1768667</v>
+        <v>1773086</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1834660</v>
+        <v>1835810</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8572353922986659</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8397794471404031</v>
+        <v>0.841877518386634</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8711135261417001</v>
+        <v>0.8716594061893064</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>89387</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>71371</v>
+        <v>69668</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>112401</v>
+        <v>111479</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09038604139322401</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07216845787303959</v>
+        <v>0.07044643087064172</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1136577272643827</v>
+        <v>0.1127254571336872</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>201</v>
@@ -6740,19 +6740,19 @@
         <v>142696</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>124813</v>
+        <v>124182</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>164773</v>
+        <v>164135</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1277310165894044</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1117235121613581</v>
+        <v>0.1111586913028226</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1474918373732872</v>
+        <v>0.1469214746483833</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>288</v>
@@ -6761,19 +6761,19 @@
         <v>232083</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>205004</v>
+        <v>204894</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>263324</v>
+        <v>261835</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1101953107319032</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09733791377518172</v>
+        <v>0.0972854120746046</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1250288662355061</v>
+        <v>0.1243218436754039</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>29867</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19838</v>
+        <v>20523</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>44767</v>
+        <v>46872</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0302012355879504</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02005956770722212</v>
+        <v>0.02075252571727738</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.04526740160399789</v>
+        <v>0.04739579629986707</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>51</v>
@@ -6811,19 +6811,19 @@
         <v>38727</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29231</v>
+        <v>28301</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52309</v>
+        <v>51183</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03466556953396563</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02616550115886154</v>
+        <v>0.02533334252704824</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04682258263555819</v>
+        <v>0.04581509995670185</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>79</v>
@@ -6832,19 +6832,19 @@
         <v>68594</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>54118</v>
+        <v>54081</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>86631</v>
+        <v>86916</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03256929696943096</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.0256958911057419</v>
+        <v>0.02567826288305187</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04113328208691658</v>
+        <v>0.0412686052730686</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>3209439</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3173869</v>
+        <v>3164125</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3244567</v>
+        <v>3243166</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9096545598884237</v>
+        <v>0.9096545598884236</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8995731281926868</v>
+        <v>0.8968111650523106</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9196110402953761</v>
+        <v>0.919213875999747</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4829</v>
@@ -6957,19 +6957,19 @@
         <v>3342604</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3311092</v>
+        <v>3309506</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>3374927</v>
+        <v>3377037</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8953556859147538</v>
+        <v>0.8953556859147537</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8869148749918404</v>
+        <v>0.8864901153185136</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9040138740575292</v>
+        <v>0.9045790409722488</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>7906</v>
@@ -6978,19 +6978,19 @@
         <v>6552042</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>6497422</v>
+        <v>6504375</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>6601408</v>
+        <v>6603836</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9023032122211871</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8947812797852011</v>
+        <v>0.8957387290465915</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9091015017619415</v>
+        <v>0.9094358841721923</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>245889</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>214792</v>
+        <v>216986</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>277942</v>
+        <v>285787</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06969264546587157</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06087872508639174</v>
+        <v>0.06150059725189227</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0787772706971229</v>
+        <v>0.08100080579667603</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>418</v>
@@ -7028,19 +7028,19 @@
         <v>306385</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>273568</v>
+        <v>274016</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>336831</v>
+        <v>337490</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08206887401104389</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07327834970541258</v>
+        <v>0.0733983499830814</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.09022412709672727</v>
+        <v>0.09040065479288313</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>648</v>
@@ -7049,19 +7049,19 @@
         <v>552274</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>509554</v>
+        <v>508594</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>600968</v>
+        <v>596779</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.07605552124282243</v>
+        <v>0.07605552124282244</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07017239258078527</v>
+        <v>0.0700401627846365</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08276129004687033</v>
+        <v>0.08218440613604518</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>72867</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>56601</v>
+        <v>55091</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94781</v>
+        <v>95485</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02065279464570475</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0160425200953511</v>
+        <v>0.0156145063443291</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0268637553875486</v>
+        <v>0.02706343888992323</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>114</v>
@@ -7099,19 +7099,19 @@
         <v>84280</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67786</v>
+        <v>69808</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>101845</v>
+        <v>101045</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0225754400742025</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01815718476758893</v>
+        <v>0.01869886074521729</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02728033855863958</v>
+        <v>0.02706615833163179</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>179</v>
@@ -7120,19 +7120,19 @@
         <v>157147</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>133203</v>
+        <v>133601</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>183122</v>
+        <v>181539</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02164126653599039</v>
+        <v>0.0216412665359904</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01834384309870782</v>
+        <v>0.0183986933824491</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02521836802257191</v>
+        <v>0.02500032920928433</v>
       </c>
     </row>
     <row r="23">
